--- a/model/compared_results/coil_2000_result/coil_2000_results.xlsx
+++ b/model/compared_results/coil_2000_result/coil_2000_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7847</v>
+        <v>0.7845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4761</v>
+        <v>0.4862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8042</v>
+        <v>0.8034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5422</v>
+        <v>0.5435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6185</v>
+        <v>0.6243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7171</v>
+        <v>0.7279</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1372</v>
+        <v>0.1431</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5471</v>
+        <v>0.5483</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6402</v>
+        <v>0.6448</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8196</v>
+        <v>0.8229</v>
       </c>
       <c r="C3" t="n">
         <v>0.331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8506</v>
+        <v>0.8542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5393</v>
+        <v>0.5417</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5305</v>
+        <v>0.5311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6515</v>
+        <v>0.6609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1174</v>
+        <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.538</v>
+        <v>0.5394</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5908</v>
+        <v>0.5926</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7755</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5068</v>
+        <v>0.5324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7926</v>
+        <v>0.7954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5407</v>
+        <v>0.5478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6332</v>
+        <v>0.6505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7292999999999999</v>
+        <v>0.7342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1532</v>
+        <v>0.1521</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5482</v>
+        <v>0.5528999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6497000000000001</v>
+        <v>0.6639</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7034</v>
+        <v>0.7053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6723</v>
+        <v>0.6689000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7054</v>
+        <v>0.7076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5151</v>
+        <v>0.5159</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6886</v>
+        <v>0.6876</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7538</v>
+        <v>0.7516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1874</v>
+        <v>0.1794</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5489000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6889</v>
+        <v>0.6882</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6728</v>
+        <v>0.6823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6108</v>
+        <v>0.6246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6767</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4885</v>
+        <v>0.4962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6408</v>
+        <v>0.6544</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7034</v>
+        <v>0.703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1415</v>
+        <v>0.1275</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5359</v>
+        <v>0.5393</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6438</v>
+        <v>0.6553</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6553</v>
+        <v>0.6382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6858</v>
+        <v>0.6933</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5008</v>
+        <v>0.5026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6701</v>
+        <v>0.665</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7297</v>
+        <v>0.7291</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1535</v>
+        <v>0.1537</v>
       </c>
       <c r="I7" t="n">
-        <v>0.543</v>
+        <v>0.5424</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6705</v>
+        <v>0.6657</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,210 @@
       </c>
       <c r="J10" t="n">
         <v>0.5817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9358</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9933999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5076000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1644</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8892</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2098</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9323</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5624</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4409</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5566</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5711000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9704</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5321</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2835</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6684</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1211</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5486</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6228</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7147</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7337</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5446</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9263</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0751</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9802999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5347</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2696</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6849</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5696</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5276999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KmeansSMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8869</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2303</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9285</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6932</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5794</v>
       </c>
     </row>
   </sheetData>
